--- a/5_Judgemental_Derivations_Analysis/1_Tables/judgemental_derivations_AR2.xlsx
+++ b/5_Judgemental_Derivations_Analysis/1_Tables/judgemental_derivations_AR2.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
-        <v>40543.99999999999</v>
+        <v>40497</v>
       </c>
       <c r="B2">
         <v>0.3647970816233392</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
-        <v>40724.99999999999</v>
+        <v>40678</v>
       </c>
       <c r="B3">
         <v>0.119222303741742</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
-        <v>40908.99999999999</v>
+        <v>40862</v>
       </c>
       <c r="B4">
         <v>-0.1818677821223996</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
-        <v>41090.99999999999</v>
+        <v>41044</v>
       </c>
       <c r="B5">
         <v>0.2707092582566427</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
-        <v>41274.99999999999</v>
+        <v>41228</v>
       </c>
       <c r="B6">
         <v>-0.5925127928898435</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
-        <v>41455.99999999999</v>
+        <v>41409</v>
       </c>
       <c r="B7">
         <v>0.7214356569573426</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
-        <v>41639.99999999999</v>
+        <v>41593</v>
       </c>
       <c r="B8">
         <v>0.3837572512271369</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
-        <v>41820.99999999999</v>
+        <v>41774</v>
       </c>
       <c r="B9">
         <v>-0.1608782057348365</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
-        <v>42004.99999999999</v>
+        <v>41958</v>
       </c>
       <c r="B10">
         <v>0.6996974281391782</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
-        <v>42185.99999999999</v>
+        <v>42139</v>
       </c>
       <c r="B11">
         <v>0.4386374241717208</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
-        <v>42369.99999999999</v>
+        <v>42323</v>
       </c>
       <c r="B12">
         <v>0.2686926711757547</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
-        <v>42551.99999999999</v>
+        <v>42505</v>
       </c>
       <c r="B13">
         <v>0.4112593675744862</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
-        <v>42735.99999999999</v>
+        <v>42689</v>
       </c>
       <c r="B14">
         <v>0.4269234262875818</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
-        <v>42916.99999999999</v>
+        <v>42870</v>
       </c>
       <c r="B15">
         <v>0.6164567140176875</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="2">
-        <v>43100.99999999999</v>
+        <v>43054</v>
       </c>
       <c r="B16">
         <v>0.6069669247009128</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2">
-        <v>43190.99999999999</v>
+        <v>43146</v>
       </c>
       <c r="B17">
         <v>0.2972807554428514</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2">
-        <v>43281.99999999999</v>
+        <v>43235</v>
       </c>
       <c r="B18">
         <v>0.4515848892748554</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2">
-        <v>43373.99999999999</v>
+        <v>43327</v>
       </c>
       <c r="B19">
         <v>-0.1988415319443278</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2">
-        <v>43465.99999999999</v>
+        <v>43419</v>
       </c>
       <c r="B20">
         <v>0.01732351667388135</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="2">
-        <v>43555.99999999999</v>
+        <v>43511</v>
       </c>
       <c r="B21">
         <v>0.4243526457088377</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="2">
-        <v>43646.99999999999</v>
+        <v>43600</v>
       </c>
       <c r="B22">
         <v>-0.07468957146858211</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="2">
-        <v>43738.99999999999</v>
+        <v>43692</v>
       </c>
       <c r="B23">
         <v>0.08415934168693044</v>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="2">
-        <v>43830.99999999999</v>
+        <v>43784</v>
       </c>
       <c r="B24">
         <v>0.02799552071668639</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="2">
-        <v>43921.99999999999</v>
+        <v>43876</v>
       </c>
       <c r="B25">
         <v>-2.221807318894706</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="2">
-        <v>44012.99999999999</v>
+        <v>43966</v>
       </c>
       <c r="B26">
         <v>-9.690957649751999</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="2">
-        <v>44104.99999999999</v>
+        <v>44058</v>
       </c>
       <c r="B27">
         <v>8.48030415038547</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="2">
-        <v>44196.99999999999</v>
+        <v>44150</v>
       </c>
       <c r="B28">
         <v>0.3406326034063205</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="2">
-        <v>44286.99999999999</v>
+        <v>44242</v>
       </c>
       <c r="B29">
         <v>-1.806937868393072</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="2">
-        <v>44377.99999999999</v>
+        <v>44331</v>
       </c>
       <c r="B30">
         <v>1.633092118130258</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="2">
-        <v>44469.99999999999</v>
+        <v>44423</v>
       </c>
       <c r="B31">
         <v>1.694266296544459</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="2">
-        <v>44561.99999999999</v>
+        <v>44515</v>
       </c>
       <c r="B32">
         <v>-0.3471896406117954</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="2">
-        <v>44651.99999999999</v>
+        <v>44607</v>
       </c>
       <c r="B33">
         <v>0.2354048964218456</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="2">
-        <v>44742.99999999999</v>
+        <v>44696</v>
       </c>
       <c r="B34">
         <v>0.1397298556124878</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="2">
-        <v>44834.99999999999</v>
+        <v>44788</v>
       </c>
       <c r="B35">
         <v>0.4001488926112106</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="2">
-        <v>44926.99999999999</v>
+        <v>44880</v>
       </c>
       <c r="B36">
         <v>-0.4353061035472806</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="2">
-        <v>45016.99999999999</v>
+        <v>44972</v>
       </c>
       <c r="B37">
         <v>-0.3352267436446591</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="2">
-        <v>45107.99999999999</v>
+        <v>45061</v>
       </c>
       <c r="B38">
         <v>0.01855976243503714</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="2">
-        <v>45199.99999999999</v>
+        <v>45153</v>
       </c>
       <c r="B39">
         <v>-0.1296176279974082</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="2">
-        <v>45291.99999999999</v>
+        <v>45245</v>
       </c>
       <c r="B40">
         <v>-0.2870636170015632</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="2">
-        <v>45382.99999999999</v>
+        <v>45337</v>
       </c>
       <c r="B41">
         <v>0.2135958395245076</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="2">
-        <v>45473.99999999999</v>
+        <v>45427</v>
       </c>
       <c r="B42">
         <v>-0.06676204101096155</v>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="2">
-        <v>45565.99999999999</v>
+        <v>45519</v>
       </c>
       <c r="B43">
         <v>0.1052128168340501</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="2">
-        <v>45657.99999999999</v>
+        <v>45611</v>
       </c>
       <c r="B44">
         <v>-0.2006497229122814</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="2">
-        <v>45747.99999999999</v>
+        <v>45703</v>
       </c>
       <c r="B45">
         <v>0.4116802297750048</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="2">
-        <v>45838.99999999999</v>
+        <v>45792</v>
       </c>
       <c r="B46">
         <v>-0.2766911554241067</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="2">
-        <v>45930.99999999999</v>
+        <v>45884</v>
       </c>
       <c r="B47">
         <v>0</v>

--- a/5_Judgemental_Derivations_Analysis/1_Tables/judgemental_derivations_AR2.xlsx
+++ b/5_Judgemental_Derivations_Analysis/1_Tables/judgemental_derivations_AR2.xlsx
@@ -462,22 +462,22 @@
         <v>0.8</v>
       </c>
       <c r="D2">
-        <v>-0.4352029183766609</v>
+        <v>0.4352029183766609</v>
       </c>
       <c r="E2">
-        <v>0.444900743380838</v>
+        <v>0.5278817260644753</v>
       </c>
       <c r="F2">
-        <v>-0.08010366175749883</v>
+        <v>0.1630846444411361</v>
       </c>
       <c r="G2">
-        <v>0.355099256619162</v>
+        <v>0.2721182739355248</v>
       </c>
       <c r="H2">
-        <v>-0.355099256619162</v>
+        <v>-0.2721182739355248</v>
       </c>
       <c r="I2">
-        <v>-0.1829849835366028</v>
+        <v>-0.1628049789110708</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -500,31 +500,31 @@
         <v>0.4</v>
       </c>
       <c r="D3">
-        <v>-0.280777696258258</v>
+        <v>0.280777696258258</v>
       </c>
       <c r="E3">
-        <v>0.352879089972535</v>
+        <v>0.8158350159267664</v>
       </c>
       <c r="F3">
-        <v>-0.233656786230793</v>
+        <v>0.6966127121850244</v>
       </c>
       <c r="G3">
-        <v>0.04712091002746505</v>
+        <v>-0.4158350159267664</v>
       </c>
       <c r="H3">
-        <v>-0.04712091002746502</v>
+        <v>0.4158350159267664</v>
       </c>
       <c r="I3">
-        <v>-0.0242406209643921</v>
+        <v>0.4064331560616811</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -538,22 +538,22 @@
         <v>-0.2</v>
       </c>
       <c r="D4">
-        <v>0.01813221787760042</v>
+        <v>-0.01813221787760042</v>
       </c>
       <c r="E4">
-        <v>0.231784144206971</v>
+        <v>0.4070688708672613</v>
       </c>
       <c r="F4">
-        <v>-0.4136519263293706</v>
+        <v>0.5889366529896609</v>
       </c>
       <c r="G4">
-        <v>-0.431784144206971</v>
+        <v>-0.6070688708672614</v>
       </c>
       <c r="H4">
-        <v>0.3955197084517702</v>
+        <v>0.5708044351120605</v>
       </c>
       <c r="I4">
-        <v>0.1707791388308383</v>
+        <v>0.3465176039095035</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -576,31 +576,31 @@
         <v>0.1</v>
       </c>
       <c r="D5">
-        <v>0.1707092582566427</v>
+        <v>-0.1707092582566427</v>
       </c>
       <c r="E5">
-        <v>-0.137004828987682</v>
+        <v>0.4060566115363017</v>
       </c>
       <c r="F5">
-        <v>0.4077140872443247</v>
+        <v>0.135347353279659</v>
       </c>
       <c r="G5">
-        <v>0.237004828987682</v>
+        <v>-0.3060566115363017</v>
       </c>
       <c r="H5">
-        <v>0.237004828987682</v>
+        <v>-0.03536190497698374</v>
       </c>
       <c r="I5">
-        <v>0.1370891260829397</v>
+        <v>-0.01082274481472432</v>
       </c>
       <c r="J5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -614,22 +614,22 @@
         <v>-0.3</v>
       </c>
       <c r="D6">
-        <v>-0.2925127928898435</v>
+        <v>0.2925127928898435</v>
       </c>
       <c r="E6">
-        <v>-0.09251056768275739</v>
+        <v>0.2658412787400625</v>
       </c>
       <c r="F6">
-        <v>-0.5000022252070861</v>
+        <v>0.8583540716299061</v>
       </c>
       <c r="G6">
-        <v>-0.2074894323172426</v>
+        <v>-0.5658412787400625</v>
       </c>
       <c r="H6">
-        <v>0.2074894323172427</v>
+        <v>0.5658412787400626</v>
       </c>
       <c r="I6">
-        <v>0.1644384912078212</v>
+        <v>0.6512079782794215</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -652,22 +652,22 @@
         <v>0.8999999999999915</v>
       </c>
       <c r="D7">
-        <v>-0.1785643430426489</v>
+        <v>0.1785643430426489</v>
       </c>
       <c r="E7">
-        <v>0.535895844045383</v>
+        <v>0.1668148420067005</v>
       </c>
       <c r="F7">
-        <v>0.1855398129119595</v>
+        <v>-0.5546208149506421</v>
       </c>
       <c r="G7">
-        <v>0.3641041559546084</v>
+        <v>0.733185157993291</v>
       </c>
       <c r="H7">
-        <v>0.006975469869310635</v>
+        <v>0.3760564719079932</v>
       </c>
       <c r="I7">
-        <v>0.002539797569152152</v>
+        <v>0.2757190237702615</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>0.3</v>
       </c>
       <c r="D8">
-        <v>0.0837572512271369</v>
+        <v>-0.0837572512271369</v>
       </c>
       <c r="E8">
-        <v>0.336410475895099</v>
+        <v>0.3071481657186778</v>
       </c>
       <c r="F8">
-        <v>0.0473467753320379</v>
+        <v>-0.07660908550845907</v>
       </c>
       <c r="G8">
-        <v>-0.03641047589509899</v>
+        <v>-0.007148165718677824</v>
       </c>
       <c r="H8">
-        <v>-0.03641047589509899</v>
+        <v>-0.007148165718677824</v>
       </c>
       <c r="I8">
-        <v>-0.004773559998783252</v>
+        <v>-0.001146325150683331</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
@@ -728,31 +728,31 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="D9">
-        <v>-0.4608782057348194</v>
+        <v>0.4608782057348194</v>
       </c>
       <c r="E9">
-        <v>0.0917580682271779</v>
+        <v>0.5498874657267171</v>
       </c>
       <c r="F9">
-        <v>-0.2526362739620144</v>
+        <v>0.7107656714615536</v>
       </c>
       <c r="G9">
-        <v>0.208241931772805</v>
+        <v>-0.2498874657267342</v>
       </c>
       <c r="H9">
-        <v>-0.208241931772805</v>
+        <v>0.2498874657267341</v>
       </c>
       <c r="I9">
-        <v>-0.1485836335999365</v>
+        <v>0.2927791192068466</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -766,31 +766,31 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="D10">
-        <v>0.4996974281391754</v>
+        <v>-0.4996974281391754</v>
       </c>
       <c r="E10">
-        <v>0.406193507823847</v>
+        <v>0.1736804633958236</v>
       </c>
       <c r="F10">
-        <v>0.2935039203153312</v>
+        <v>-0.5260169647433546</v>
       </c>
       <c r="G10">
-        <v>-0.2061935078238442</v>
+        <v>0.02631953660417918</v>
       </c>
       <c r="H10">
-        <v>-0.2061935078238442</v>
+        <v>0.02631953660417913</v>
       </c>
       <c r="I10">
-        <v>-0.1635529684484381</v>
+        <v>0.02699632750890513</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -804,25 +804,25 @@
         <v>0.6200000000000045</v>
       </c>
       <c r="D11">
-        <v>-0.1813625758282837</v>
+        <v>0.1813625758282837</v>
       </c>
       <c r="E11">
-        <v>0.480124956126704</v>
+        <v>0.3086271608792364</v>
       </c>
       <c r="F11">
-        <v>-0.04148753195498317</v>
+        <v>-0.1300102632924844</v>
       </c>
       <c r="G11">
-        <v>0.1398750438733006</v>
+        <v>0.3113728391207681</v>
       </c>
       <c r="H11">
-        <v>-0.1398750438733006</v>
+        <v>-0.05135231253579936</v>
       </c>
       <c r="I11">
-        <v>-0.03117116860335422</v>
+        <v>-0.01598971534968886</v>
       </c>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -842,22 +842,22 @@
         <v>0.4699999999999989</v>
       </c>
       <c r="D12">
-        <v>-0.2013073288242442</v>
+        <v>0.2013073288242442</v>
       </c>
       <c r="E12">
-        <v>0.395376664579939</v>
+        <v>0.3194721332081325</v>
       </c>
       <c r="F12">
-        <v>-0.1266839934041843</v>
+        <v>0.05077946203237782</v>
       </c>
       <c r="G12">
-        <v>0.07462333542005994</v>
+        <v>0.1505278667918664</v>
       </c>
       <c r="H12">
-        <v>-0.07462333542005994</v>
+        <v>-0.1505278667918664</v>
       </c>
       <c r="I12">
-        <v>-0.02447580645352098</v>
+        <v>-0.03794608687405469</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -880,31 +880,31 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="D13">
-        <v>0.07125936757448281</v>
+        <v>-0.07125936757448281</v>
       </c>
       <c r="E13">
-        <v>0.350906646240513</v>
+        <v>0.4935538258476527</v>
       </c>
       <c r="F13">
-        <v>0.06035272133397324</v>
+        <v>0.0822944582731665</v>
       </c>
       <c r="G13">
-        <v>-0.01090664624050958</v>
+        <v>-0.1535538258476493</v>
       </c>
       <c r="H13">
-        <v>-0.01090664624050958</v>
+        <v>0.01103509069868369</v>
       </c>
       <c r="I13">
-        <v>-0.001435446494699024</v>
+        <v>0.00169448039535869</v>
       </c>
       <c r="J13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
       </c>
       <c r="L13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -918,28 +918,28 @@
         <v>0.4499999999999886</v>
       </c>
       <c r="D14">
-        <v>-0.02307657371240679</v>
+        <v>0.02307657371240679</v>
       </c>
       <c r="E14">
-        <v>1.12101181637889</v>
+        <v>0.2854538301566019</v>
       </c>
       <c r="F14">
-        <v>-0.6940883900913082</v>
+        <v>-0.1414695961309799</v>
       </c>
       <c r="G14">
-        <v>-0.6710118163789014</v>
+        <v>0.1645461698433867</v>
       </c>
       <c r="H14">
-        <v>0.6710118163789014</v>
+        <v>0.1183930224185731</v>
       </c>
       <c r="I14">
-        <v>0.4812261650052398</v>
+        <v>0.01948111837515841</v>
       </c>
       <c r="J14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -956,28 +956,28 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="D15">
-        <v>-0.0835432859823011</v>
+        <v>0.0835432859823011</v>
       </c>
       <c r="E15">
-        <v>0.809577098583235</v>
+        <v>0.4880370991768954</v>
       </c>
       <c r="F15">
-        <v>-0.1931203845655475</v>
+        <v>-0.1284196148407921</v>
       </c>
       <c r="G15">
-        <v>-0.1095770985832464</v>
+        <v>0.2119629008230932</v>
       </c>
       <c r="H15">
-        <v>0.1095770985832464</v>
+        <v>0.04487632885849102</v>
       </c>
       <c r="I15">
-        <v>0.0303160023020244</v>
+        <v>0.00951211684313685</v>
       </c>
       <c r="J15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -994,31 +994,31 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="D16">
-        <v>0.05696692470090148</v>
+        <v>-0.05696692470090148</v>
       </c>
       <c r="E16">
-        <v>0.515056337211413</v>
+        <v>0.5892375486112547</v>
       </c>
       <c r="F16">
-        <v>0.09191058748949987</v>
+        <v>-0.01772937608965819</v>
       </c>
       <c r="G16">
-        <v>0.0349436627885984</v>
+        <v>-0.03923754861124329</v>
       </c>
       <c r="H16">
-        <v>0.0349436627885984</v>
+        <v>-0.03923754861124329</v>
       </c>
       <c r="I16">
-        <v>0.005202325582786833</v>
+        <v>-0.002930899733349635</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1032,22 +1032,22 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="D17">
-        <v>-0.4027192445571373</v>
+        <v>0.4027192445571373</v>
       </c>
       <c r="E17">
-        <v>0.541582629209194</v>
+        <v>0.498268675818354</v>
       </c>
       <c r="F17">
-        <v>-0.2443018737663426</v>
+        <v>0.2009879203755026</v>
       </c>
       <c r="G17">
-        <v>0.1584173707907947</v>
+        <v>0.2017313241816346</v>
       </c>
       <c r="H17">
-        <v>-0.1584173707907947</v>
+        <v>-0.2017313241816346</v>
       </c>
       <c r="I17">
-        <v>-0.1024993844109253</v>
+        <v>-0.1217866457998019</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -1070,31 +1070,31 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="D18">
-        <v>0.1515848892748725</v>
+        <v>-0.1515848892748725</v>
       </c>
       <c r="E18">
-        <v>-0.138856201462895</v>
+        <v>0.3409278159840826</v>
       </c>
       <c r="F18">
-        <v>0.5904410907377504</v>
+        <v>-0.1106570732907728</v>
       </c>
       <c r="G18">
-        <v>0.4388562014628779</v>
+        <v>-0.04092781598409972</v>
       </c>
       <c r="H18">
-        <v>0.4388562014628779</v>
+        <v>-0.04092781598409972</v>
       </c>
       <c r="I18">
-        <v>0.3256427029751091</v>
+        <v>-0.0107329907871959</v>
       </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1108,22 +1108,22 @@
         <v>0.4999999999999716</v>
       </c>
       <c r="D19">
-        <v>-0.6988415319442993</v>
+        <v>0.6988415319442993</v>
       </c>
       <c r="E19">
-        <v>0.0503775864399945</v>
+        <v>0.3924672903298065</v>
       </c>
       <c r="F19">
-        <v>-0.2492191183843223</v>
+        <v>0.5913088222741343</v>
       </c>
       <c r="G19">
-        <v>0.4496224135599771</v>
+        <v>0.1075327096701651</v>
       </c>
       <c r="H19">
-        <v>-0.449622413559977</v>
+        <v>-0.107532709670165</v>
       </c>
       <c r="I19">
-        <v>-0.4262693178019962</v>
+        <v>-0.1387333634710314</v>
       </c>
       <c r="J19" t="b">
         <v>1</v>
@@ -1146,31 +1146,31 @@
         <v>0.2</v>
       </c>
       <c r="D20">
-        <v>-0.1826764833261187</v>
+        <v>0.1826764833261187</v>
       </c>
       <c r="E20">
-        <v>0.24747400421905</v>
+        <v>0.1122805722851697</v>
       </c>
       <c r="F20">
-        <v>-0.2301504875451686</v>
+        <v>0.09495705561128835</v>
       </c>
       <c r="G20">
-        <v>-0.04747400421904999</v>
+        <v>0.08771942771483031</v>
       </c>
       <c r="H20">
-        <v>0.04747400421904999</v>
+        <v>-0.08771942771483031</v>
       </c>
       <c r="I20">
-        <v>0.01959854935688111</v>
+        <v>-0.0243538551500324</v>
       </c>
       <c r="J20" t="b">
         <v>1</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1184,25 +1184,25 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="D21">
-        <v>0.3243526457088434</v>
+        <v>-0.3243526457088434</v>
       </c>
       <c r="E21">
-        <v>0.601318885903152</v>
+        <v>0.1844683999603099</v>
       </c>
       <c r="F21">
-        <v>-0.1769662401943143</v>
+        <v>-0.2398842457485278</v>
       </c>
       <c r="G21">
-        <v>-0.5013188859031577</v>
+        <v>-0.08446839996031558</v>
       </c>
       <c r="H21">
-        <v>-0.1473864055145291</v>
+        <v>-0.08446839996031558</v>
       </c>
       <c r="I21">
-        <v>-0.07388758860981473</v>
+        <v>-0.04766018741998639</v>
       </c>
       <c r="J21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1222,28 +1222,28 @@
         <v>-0.1</v>
       </c>
       <c r="D22">
-        <v>0.02531042853141789</v>
+        <v>-0.02531042853141789</v>
       </c>
       <c r="E22">
-        <v>-0.302587196304716</v>
+        <v>0.3627307324263691</v>
       </c>
       <c r="F22">
-        <v>0.2278976248361338</v>
+        <v>0.4374203038949512</v>
       </c>
       <c r="G22">
-        <v>0.202587196304716</v>
+        <v>-0.4627307324263691</v>
       </c>
       <c r="H22">
-        <v>0.2025871963047159</v>
+        <v>0.4121098753635333</v>
       </c>
       <c r="I22">
-        <v>0.0512967096135072</v>
+        <v>0.1906959044671075</v>
       </c>
       <c r="J22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -1260,22 +1260,22 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="D23">
-        <v>0.1841593416869248</v>
+        <v>-0.1841593416869248</v>
       </c>
       <c r="E23">
-        <v>0.235914458649045</v>
+        <v>0.1794263626245832</v>
       </c>
       <c r="F23">
-        <v>-0.1517551169621146</v>
+        <v>0.09526702093765275</v>
       </c>
       <c r="G23">
-        <v>-0.3359144586490393</v>
+        <v>-0.2794263626245775</v>
       </c>
       <c r="H23">
-        <v>-0.03240422472481019</v>
+        <v>-0.08889232074927202</v>
       </c>
       <c r="I23">
-        <v>-0.01088504760637643</v>
+        <v>-0.02483885785222634</v>
       </c>
       <c r="J23" t="b">
         <v>1</v>
@@ -1298,31 +1298,31 @@
         <v>0.08000000000004093</v>
       </c>
       <c r="D24">
-        <v>-0.05200447928335454</v>
+        <v>0.05200447928335454</v>
       </c>
       <c r="E24">
-        <v>0.024124257856421</v>
+        <v>0.1814061084957765</v>
       </c>
       <c r="F24">
-        <v>0.00387126286026539</v>
+        <v>0.1534105877790901</v>
       </c>
       <c r="G24">
-        <v>0.05587574214361993</v>
+        <v>-0.1014061084957356</v>
       </c>
       <c r="H24">
-        <v>-0.04813321642308915</v>
+        <v>0.1014061084957356</v>
       </c>
       <c r="I24">
-        <v>-0.002689479189399581</v>
+        <v>0.02083034257719306</v>
       </c>
       <c r="J24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1336,22 +1336,22 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="D25">
-        <v>-2.3218073188947</v>
+        <v>2.3218073188947</v>
       </c>
       <c r="E25">
-        <v>0.7155752359999999</v>
+        <v>0.1900831754885381</v>
       </c>
       <c r="F25">
-        <v>-2.937382554894706</v>
+        <v>2.411890494383244</v>
       </c>
       <c r="G25">
-        <v>-0.6155752360000056</v>
+        <v>-0.09008317548854378</v>
       </c>
       <c r="H25">
-        <v>0.6155752360000055</v>
+        <v>0.09008317548854361</v>
       </c>
       <c r="I25">
-        <v>3.237427047726753</v>
+        <v>0.4264265308232522</v>
       </c>
       <c r="J25" t="b">
         <v>1</v>
@@ -1374,22 +1374,22 @@
         <v>-11.9</v>
       </c>
       <c r="D26">
-        <v>2.209042350248001</v>
+        <v>-2.209042350248001</v>
       </c>
       <c r="E26">
-        <v>-7.451780981</v>
+        <v>-0.6845717329199352</v>
       </c>
       <c r="F26">
-        <v>-2.239176668751999</v>
+        <v>9.006385916832064</v>
       </c>
       <c r="G26">
-        <v>-4.448219019000001</v>
+        <v>-11.21542826708007</v>
       </c>
       <c r="H26">
-        <v>0.03013431850399773</v>
+        <v>6.797343566584063</v>
       </c>
       <c r="I26">
-        <v>0.1340440486940864</v>
+        <v>76.23511917772173</v>
       </c>
       <c r="J26" t="b">
         <v>1</v>
@@ -1412,22 +1412,22 @@
         <v>6.640000000000001</v>
       </c>
       <c r="D27">
-        <v>1.840304150385469</v>
+        <v>-1.840304150385469</v>
       </c>
       <c r="E27">
-        <v>6.405694238</v>
+        <v>-7.463655357282573</v>
       </c>
       <c r="F27">
-        <v>2.07460991238547</v>
+        <v>-15.94395950766804</v>
       </c>
       <c r="G27">
-        <v>0.2343057620000009</v>
+        <v>14.10365535728257</v>
       </c>
       <c r="H27">
-        <v>0.2343057620000009</v>
+        <v>14.10365535728257</v>
       </c>
       <c r="I27">
-        <v>0.9172869226420644</v>
+        <v>250.8231254162322</v>
       </c>
       <c r="J27" t="b">
         <v>0</v>
@@ -1450,22 +1450,22 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="D28">
-        <v>0.7406326034063262</v>
+        <v>-0.7406326034063262</v>
       </c>
       <c r="E28">
-        <v>-1.14456628109437</v>
+        <v>-4.144592182330832</v>
       </c>
       <c r="F28">
-        <v>1.48519888450069</v>
+        <v>-4.485224785737152</v>
       </c>
       <c r="G28">
-        <v>0.7445662810943643</v>
+        <v>3.744592182330826</v>
       </c>
       <c r="H28">
-        <v>0.7445662810943643</v>
+        <v>3.744592182330826</v>
       </c>
       <c r="I28">
-        <v>1.657279073293663</v>
+        <v>19.56870472536245</v>
       </c>
       <c r="J28" t="b">
         <v>0</v>
@@ -1488,31 +1488,31 @@
         <v>-0.7094799999999992</v>
       </c>
       <c r="D29">
-        <v>-1.097457868393073</v>
+        <v>1.097457868393073</v>
       </c>
       <c r="E29">
-        <v>1.297172517</v>
+        <v>-0.8877061776737167</v>
       </c>
       <c r="F29">
-        <v>-3.104110385393072</v>
+        <v>0.9192316907193552</v>
       </c>
       <c r="G29">
-        <v>-2.006652516999999</v>
+        <v>0.1782261776737175</v>
       </c>
       <c r="H29">
-        <v>2.006652516999999</v>
+        <v>-0.1782261776737175</v>
       </c>
       <c r="I29">
-        <v>8.431087511807256</v>
+        <v>-0.3594268716751026</v>
       </c>
       <c r="J29" t="b">
         <v>1</v>
       </c>
       <c r="K29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1526,22 +1526,22 @@
         <v>1.310000000000016</v>
       </c>
       <c r="D30">
-        <v>0.323092118130242</v>
+        <v>-0.323092118130242</v>
       </c>
       <c r="E30">
-        <v>0.673905569079516</v>
+        <v>0.892999978012982</v>
       </c>
       <c r="F30">
-        <v>0.959186549050742</v>
+        <v>-0.740092140117276</v>
       </c>
       <c r="G30">
-        <v>0.6360944309205</v>
+        <v>0.417000021987034</v>
       </c>
       <c r="H30">
-        <v>0.6360944309205</v>
+        <v>0.417000021987034</v>
       </c>
       <c r="I30">
-        <v>0.8156503190819853</v>
+        <v>0.4433478590654834</v>
       </c>
       <c r="J30" t="b">
         <v>0</v>
@@ -1564,22 +1564,22 @@
         <v>1.52000000000001</v>
       </c>
       <c r="D31">
-        <v>0.174266296544449</v>
+        <v>-0.174266296544449</v>
       </c>
       <c r="E31">
-        <v>0.347602564</v>
+        <v>0.464029186385135</v>
       </c>
       <c r="F31">
-        <v>1.346663732544459</v>
+        <v>-1.230237110159324</v>
       </c>
       <c r="G31">
-        <v>1.17239743600001</v>
+        <v>1.055970813614875</v>
       </c>
       <c r="H31">
-        <v>1.17239743600001</v>
+        <v>1.055970813614875</v>
       </c>
       <c r="I31">
-        <v>1.783134466439256</v>
+        <v>1.483114605101847</v>
       </c>
       <c r="J31" t="b">
         <v>0</v>
@@ -1602,31 +1602,31 @@
         <v>-0.539999999999992</v>
       </c>
       <c r="D32">
-        <v>0.1928103593881966</v>
+        <v>-0.1928103593881966</v>
       </c>
       <c r="E32">
-        <v>-0.24627924</v>
+        <v>-0.6356350162097709</v>
       </c>
       <c r="F32">
-        <v>-0.1009104006117954</v>
+        <v>-0.2884453755979755</v>
       </c>
       <c r="G32">
-        <v>-0.293720759999992</v>
+        <v>0.09563501620977888</v>
       </c>
       <c r="H32">
-        <v>-0.09189995877640122</v>
+        <v>0.09563501620977888</v>
       </c>
       <c r="I32">
-        <v>-0.02699292573577251</v>
+        <v>0.04602490001645162</v>
       </c>
       <c r="J32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1640,31 +1640,31 @@
         <v>0.4652855479103435</v>
       </c>
       <c r="D33">
-        <v>-0.2298806514884979</v>
+        <v>0.2298806514884979</v>
       </c>
       <c r="E33">
-        <v>2.276288116</v>
+        <v>0.3241408423207837</v>
       </c>
       <c r="F33">
-        <v>-2.040883219578154</v>
+        <v>0.08873594589893813</v>
       </c>
       <c r="G33">
-        <v>-1.811002568089656</v>
+        <v>0.1411447055895598</v>
       </c>
       <c r="H33">
-        <v>1.811002568089656</v>
+        <v>-0.1411447055895598</v>
       </c>
       <c r="I33">
-        <v>4.112359202026917</v>
+        <v>-0.04497104583419696</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1678,22 +1678,22 @@
         <v>0.38</v>
       </c>
       <c r="D34">
-        <v>-0.2402701443875122</v>
+        <v>0.2402701443875122</v>
       </c>
       <c r="E34">
-        <v>0.92820296</v>
+        <v>0.6660072552246967</v>
       </c>
       <c r="F34">
-        <v>-0.7884731043875122</v>
+        <v>0.526277399612209</v>
       </c>
       <c r="G34">
-        <v>-0.54820296</v>
+        <v>-0.2860072552246967</v>
       </c>
       <c r="H34">
-        <v>0.54820296</v>
+        <v>0.2860072552246968</v>
       </c>
       <c r="I34">
-        <v>0.5639600940584847</v>
+        <v>0.2192381590585927</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
@@ -1716,31 +1716,31 @@
         <v>0.04</v>
       </c>
       <c r="D35">
-        <v>0.3601488926112106</v>
+        <v>-0.3601488926112106</v>
       </c>
       <c r="E35">
-        <v>-0.277926312</v>
+        <v>0.3437767272872988</v>
       </c>
       <c r="F35">
-        <v>0.6780752046112106</v>
+        <v>-0.05637216532391182</v>
       </c>
       <c r="G35">
-        <v>0.317926312</v>
+        <v>-0.3037767272872988</v>
       </c>
       <c r="H35">
-        <v>0.317926312</v>
+        <v>-0.3037767272872988</v>
       </c>
       <c r="I35">
-        <v>0.3300787582594538</v>
+        <v>-0.1265294038257749</v>
       </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1754,22 +1754,22 @@
         <v>-0.29</v>
       </c>
       <c r="D36">
-        <v>-0.1453061035472806</v>
+        <v>0.1453061035472806</v>
       </c>
       <c r="E36">
-        <v>0.251316528</v>
+        <v>0.4120709423816584</v>
       </c>
       <c r="F36">
-        <v>-0.6866226315472805</v>
+        <v>0.847377045928939</v>
       </c>
       <c r="G36">
-        <v>-0.541316528</v>
+        <v>-0.7020709423816585</v>
       </c>
       <c r="H36">
-        <v>0.5413165279999999</v>
+        <v>0.7020709423816585</v>
       </c>
       <c r="I36">
-        <v>0.4503367744248195</v>
+        <v>0.6969339942391621</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
@@ -1792,22 +1792,22 @@
         <v>-0.2078779574152918</v>
       </c>
       <c r="D37">
-        <v>-0.1273487862293673</v>
+        <v>0.1273487862293673</v>
       </c>
       <c r="E37">
-        <v>0.538736913</v>
+        <v>0.6519408127754134</v>
       </c>
       <c r="F37">
-        <v>-0.8739636566446591</v>
+        <v>0.9871675564200725</v>
       </c>
       <c r="G37">
-        <v>-0.7466148704152918</v>
+        <v>-0.8598187701907052</v>
       </c>
       <c r="H37">
-        <v>0.7466148704152918</v>
+        <v>0.8598187701907052</v>
       </c>
       <c r="I37">
-        <v>0.7475947597816106</v>
+        <v>0.9582820710942839</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
@@ -1830,28 +1830,28 @@
         <v>0.1206478331785803</v>
       </c>
       <c r="D38">
-        <v>-0.1020880707435432</v>
+        <v>0.1020880707435432</v>
       </c>
       <c r="E38">
-        <v>-0.318864405</v>
+        <v>0.8814549586592991</v>
       </c>
       <c r="F38">
-        <v>0.3374241674350372</v>
+        <v>0.862895196224262</v>
       </c>
       <c r="G38">
-        <v>0.4395122381785803</v>
+        <v>-0.7608071254807188</v>
       </c>
       <c r="H38">
-        <v>0.235336096691494</v>
+        <v>0.7608071254807188</v>
       </c>
       <c r="I38">
-        <v>0.1034330945810893</v>
+        <v>0.7341661454787689</v>
       </c>
       <c r="J38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38" t="b">
         <v>1</v>
@@ -1868,28 +1868,28 @@
         <v>-0.18</v>
       </c>
       <c r="D39">
-        <v>0.0503823720025918</v>
+        <v>-0.0503823720025918</v>
       </c>
       <c r="E39">
-        <v>-0.474503149</v>
+        <v>0.5350086232236873</v>
       </c>
       <c r="F39">
-        <v>0.3448855210025918</v>
+        <v>0.6646262512210954</v>
       </c>
       <c r="G39">
-        <v>0.294503149</v>
+        <v>-0.7150086232236872</v>
       </c>
       <c r="H39">
-        <v>0.2945031490000001</v>
+        <v>0.6142438792185037</v>
       </c>
       <c r="I39">
-        <v>0.1164076391886217</v>
+        <v>0.4391896704035991</v>
       </c>
       <c r="J39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="b">
         <v>1</v>
@@ -1906,31 +1906,31 @@
         <v>0.044</v>
       </c>
       <c r="D40">
-        <v>-0.3310636170015632</v>
+        <v>0.3310636170015632</v>
       </c>
       <c r="E40">
-        <v>-0.290614742754258</v>
+        <v>0.5007400141027678</v>
       </c>
       <c r="F40">
-        <v>0.003551125752694839</v>
+        <v>0.787803631104331</v>
       </c>
       <c r="G40">
-        <v>0.334614742754258</v>
+        <v>-0.4567400141027678</v>
       </c>
       <c r="H40">
-        <v>-0.3275124912488683</v>
+        <v>0.4567400141027679</v>
       </c>
       <c r="I40">
-        <v>-0.1095905080080462</v>
+        <v>0.5110314426790112</v>
       </c>
       <c r="J40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -1944,28 +1944,28 @@
         <v>-0.08251004046350374</v>
       </c>
       <c r="D41">
-        <v>0.2961058799880114</v>
+        <v>-0.2961058799880114</v>
       </c>
       <c r="E41">
-        <v>-0.236658442</v>
+        <v>0.6148977852456914</v>
       </c>
       <c r="F41">
-        <v>0.4502542815245076</v>
+        <v>0.4013019457211838</v>
       </c>
       <c r="G41">
-        <v>0.1541484015364963</v>
+        <v>-0.6974078257091951</v>
       </c>
       <c r="H41">
-        <v>0.1541484015364963</v>
+        <v>0.1051960657331724</v>
       </c>
       <c r="I41">
-        <v>0.115050225867676</v>
+        <v>0.07336455947613334</v>
       </c>
       <c r="J41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
@@ -1982,22 +1982,22 @@
         <v>0.2582525219575302</v>
       </c>
       <c r="D42">
-        <v>-0.3250145629684917</v>
+        <v>0.3250145629684917</v>
       </c>
       <c r="E42">
-        <v>0.374912587</v>
+        <v>0.5461074682008229</v>
       </c>
       <c r="F42">
-        <v>-0.4416746280109616</v>
+        <v>0.6128695092117844</v>
       </c>
       <c r="G42">
-        <v>-0.1166600650424698</v>
+        <v>-0.2878549462432927</v>
       </c>
       <c r="H42">
-        <v>0.1166600650424698</v>
+        <v>0.2878549462432927</v>
       </c>
       <c r="I42">
-        <v>0.08944201088702161</v>
+        <v>0.2699745691798938</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
@@ -2020,28 +2020,28 @@
         <v>-0.04717552522494373</v>
       </c>
       <c r="D43">
-        <v>0.1523883420589938</v>
+        <v>-0.1523883420589938</v>
       </c>
       <c r="E43">
-        <v>-0.559269386</v>
+        <v>0.3984361203848173</v>
       </c>
       <c r="F43">
-        <v>0.66448220283405</v>
+        <v>0.2932233035507672</v>
       </c>
       <c r="G43">
-        <v>0.5120938607750563</v>
+        <v>-0.445611645609761</v>
       </c>
       <c r="H43">
-        <v>0.5120938607750563</v>
+        <v>0.1408349614917734</v>
       </c>
       <c r="I43">
-        <v>0.4183143910877027</v>
+        <v>0.06275769894973646</v>
       </c>
       <c r="J43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="b">
         <v>1</v>
@@ -2058,31 +2058,31 @@
         <v>0.2142297805489477</v>
       </c>
       <c r="D44">
-        <v>-0.4148795034612291</v>
+        <v>0.4148795034612291</v>
       </c>
       <c r="E44">
-        <v>0.135411462</v>
+        <v>0.4733275747052469</v>
       </c>
       <c r="F44">
-        <v>-0.3360611849122814</v>
+        <v>0.6739772976175282</v>
       </c>
       <c r="G44">
-        <v>0.07881831854894769</v>
+        <v>-0.2590977941562992</v>
       </c>
       <c r="H44">
-        <v>-0.07881831854894766</v>
+        <v>0.2590977941562991</v>
       </c>
       <c r="I44">
-        <v>-0.05918788238758937</v>
+        <v>0.2821203953115902</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
       <c r="K44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2096,25 +2096,25 @@
         <v>0.2394371574146135</v>
       </c>
       <c r="D45">
-        <v>0.1722430723603913</v>
+        <v>-0.1722430723603913</v>
       </c>
       <c r="E45">
-        <v>0.332099825</v>
+        <v>0.4738675049177161</v>
       </c>
       <c r="F45">
-        <v>0.07958040477500478</v>
+        <v>0.06218727514271133</v>
       </c>
       <c r="G45">
-        <v>-0.09266266758538652</v>
+        <v>-0.2344303475031026</v>
       </c>
       <c r="H45">
-        <v>-0.09266266758538652</v>
+        <v>-0.11005579721768</v>
       </c>
       <c r="I45">
-        <v>-0.02333463515199339</v>
+        <v>-0.02580041878647171</v>
       </c>
       <c r="J45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
@@ -2134,31 +2134,31 @@
         <v>0.04717883418304325</v>
       </c>
       <c r="D46">
-        <v>-0.32386998960715</v>
+        <v>0.32386998960715</v>
       </c>
       <c r="E46">
-        <v>0.028721274</v>
+        <v>0.3519456421565676</v>
       </c>
       <c r="F46">
-        <v>-0.3054124294241067</v>
+        <v>0.6286367975806744</v>
       </c>
       <c r="G46">
-        <v>0.01845756018304325</v>
+        <v>-0.3047668079735243</v>
       </c>
       <c r="H46">
-        <v>-0.01845756018304323</v>
+        <v>0.3047668079735244</v>
       </c>
       <c r="I46">
-        <v>-0.01161501812140045</v>
+        <v>0.2902924531043503</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
       <c r="K46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2172,31 +2172,31 @@
         <v>0.0959495356205764</v>
       </c>
       <c r="D47">
-        <v>-0.0959495356205764</v>
+        <v>0.0959495356205764</v>
       </c>
       <c r="E47">
-        <v>0.042359665</v>
+        <v>0.4328090033804217</v>
       </c>
       <c r="F47">
-        <v>-0.042359665</v>
+        <v>0.4328090033804217</v>
       </c>
       <c r="G47">
-        <v>0.0535898706205764</v>
+        <v>-0.3368594677598453</v>
       </c>
       <c r="H47">
-        <v>-0.0535898706205764</v>
+        <v>0.3368594677598453</v>
       </c>
       <c r="I47">
-        <v>-0.007411972166892034</v>
+        <v>0.1781173200213496</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
